--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,7 +1004,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,7 +1004,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>Cuando el Bundle fue hecho</t>
+    <t>Cuando el Bundle fue armado</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1228,9 +1228,6 @@
   </si>
   <si>
     <t>practitionerRole</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso PractitionerRole</t>
@@ -18284,10 +18281,10 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18302,7 +18299,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>179</v>
@@ -18385,7 +18382,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -18497,7 +18494,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -18611,7 +18608,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -18727,7 +18724,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -18839,7 +18836,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -18953,7 +18950,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -18979,13 +18976,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19065,7 +19062,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -19177,7 +19174,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -19289,7 +19286,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -19403,7 +19400,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -19519,7 +19516,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -19633,7 +19630,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -19747,7 +19744,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -19859,7 +19856,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -19971,7 +19968,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -20085,7 +20082,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -20201,7 +20198,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -20313,7 +20310,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -20427,7 +20424,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -20539,7 +20536,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -20651,7 +20648,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -20763,7 +20760,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -20875,7 +20872,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -20987,7 +20984,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -21099,7 +21096,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -21213,7 +21210,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -21329,7 +21326,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -21441,7 +21438,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -21553,7 +21550,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -21667,7 +21664,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -21781,7 +21778,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -21895,23 +21892,23 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21926,7 +21923,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>179</v>
@@ -22009,7 +22006,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22121,7 +22118,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -22235,7 +22232,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -22351,7 +22348,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -22463,7 +22460,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -22577,7 +22574,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
@@ -22603,13 +22600,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L183" t="s" s="2">
+      <c r="M183" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22672,13 +22669,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK183" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK183" t="s" s="2">
+      <c r="AL183" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22689,7 +22686,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -22801,7 +22798,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -22913,7 +22910,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -23027,7 +23024,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23143,7 +23140,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -23257,7 +23254,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -23371,7 +23368,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -23483,7 +23480,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -23595,7 +23592,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -23709,7 +23706,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -23825,7 +23822,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -23937,7 +23934,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -24051,7 +24048,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -24163,7 +24160,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -24275,7 +24272,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -24387,7 +24384,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -24499,7 +24496,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -24611,7 +24608,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -24723,7 +24720,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -24837,7 +24834,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -24953,7 +24950,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -25065,7 +25062,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -25177,7 +25174,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -25291,7 +25288,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -25405,7 +25402,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -25519,13 +25516,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25633,7 +25630,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -25745,7 +25742,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -25859,7 +25856,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -25975,7 +25972,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -26087,7 +26084,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -26201,7 +26198,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
@@ -26227,10 +26224,10 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>319</v>
@@ -26313,7 +26310,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -26425,7 +26422,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -26537,7 +26534,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -26651,7 +26648,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -26767,7 +26764,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -26881,7 +26878,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -26995,7 +26992,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -27107,7 +27104,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -27219,7 +27216,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -27333,7 +27330,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -27449,7 +27446,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -27561,7 +27558,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -27675,7 +27672,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -27787,7 +27784,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -27899,7 +27896,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -28011,7 +28008,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -28123,7 +28120,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -28235,7 +28232,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -28347,7 +28344,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -28461,7 +28458,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -28577,7 +28574,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -28689,7 +28686,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -28801,7 +28798,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -28915,7 +28912,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -29029,7 +29026,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -29143,10 +29140,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -29169,19 +29166,19 @@
         <v>88</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -29230,7 +29227,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1133,7 +1133,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>
@@ -2879,7 +2876,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>
@@ -3790,7 +3787,7 @@
         <v>176</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>88</v>
@@ -3805,10 +3802,10 @@
         <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3847,14 +3844,14 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>175</v>
@@ -3869,7 +3866,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3883,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3998,10 +3995,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4112,10 +4109,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4228,10 +4225,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4257,10 +4254,10 @@
         <v>77</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4311,7 +4308,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4340,10 +4337,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4369,13 +4366,13 @@
         <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4425,7 +4422,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4454,10 +4451,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4480,13 +4477,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4537,7 +4534,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4566,10 +4563,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4595,10 +4592,10 @@
         <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4649,7 +4646,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4658,7 +4655,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -4678,10 +4675,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4790,10 +4787,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4904,10 +4901,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5020,10 +5017,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5049,13 +5046,13 @@
         <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5084,11 +5081,11 @@
         <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5134,10 +5131,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5160,16 +5157,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5219,7 +5216,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5248,10 +5245,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5277,10 +5274,10 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5331,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5340,7 +5337,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -5360,10 +5357,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5472,10 +5469,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5586,10 +5583,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5702,10 +5699,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5731,10 +5728,10 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5764,11 +5761,11 @@
         <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5843,13 +5840,13 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5899,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5928,10 +5925,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5957,10 +5954,10 @@
         <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6011,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6040,10 +6037,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6069,10 +6066,10 @@
         <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6123,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6152,10 +6149,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6181,10 +6178,10 @@
         <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6235,7 +6232,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6264,10 +6261,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6293,10 +6290,10 @@
         <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6347,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6376,10 +6373,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6405,10 +6402,10 @@
         <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6459,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6465,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -6488,10 +6485,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6600,10 +6597,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6714,10 +6711,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6830,10 +6827,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6859,10 +6856,10 @@
         <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6913,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6942,10 +6939,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6971,10 +6968,10 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7025,7 +7022,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7054,10 +7051,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7083,13 +7080,13 @@
         <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7139,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7168,10 +7165,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7197,13 +7194,13 @@
         <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7253,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7282,10 +7279,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7308,16 +7305,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7367,7 +7364,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7396,13 +7393,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -7427,10 +7424,10 @@
         <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7493,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7510,10 +7507,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7622,10 +7619,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7736,10 +7733,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7852,10 +7849,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7881,10 +7878,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7935,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7964,10 +7961,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7993,13 +7990,13 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8049,7 +8046,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8078,10 +8075,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8104,13 +8101,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8161,7 +8158,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8173,13 +8170,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8190,10 +8187,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8219,10 +8216,10 @@
         <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8273,7 +8270,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8282,7 +8279,7 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
@@ -8302,10 +8299,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8414,10 +8411,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8528,10 +8525,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8644,10 +8641,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8673,13 +8670,13 @@
         <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8708,11 +8705,11 @@
         <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8729,7 +8726,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8758,10 +8755,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8784,16 +8781,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8843,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8872,10 +8869,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8901,10 +8898,10 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8955,7 +8952,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8964,7 +8961,7 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>99</v>
@@ -8984,10 +8981,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9096,10 +9093,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9210,10 +9207,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9326,10 +9323,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9355,10 +9352,10 @@
         <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9388,11 +9385,11 @@
         <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9409,7 +9406,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9438,10 +9435,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9467,13 +9464,13 @@
         <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9523,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -9552,10 +9549,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9581,10 +9578,10 @@
         <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9635,7 +9632,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9664,10 +9661,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9693,10 +9690,10 @@
         <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9747,7 +9744,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9776,10 +9773,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9805,10 +9802,10 @@
         <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9859,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9888,10 +9885,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9917,10 +9914,10 @@
         <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9971,7 +9968,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10000,10 +9997,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10029,10 +10026,10 @@
         <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10083,7 +10080,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10092,7 +10089,7 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>99</v>
@@ -10112,10 +10109,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10224,10 +10221,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10338,10 +10335,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10454,10 +10451,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10483,10 +10480,10 @@
         <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10537,7 +10534,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10566,10 +10563,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10595,10 +10592,10 @@
         <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10649,7 +10646,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10678,10 +10675,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10707,13 +10704,13 @@
         <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10763,7 +10760,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10792,10 +10789,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10821,13 +10818,13 @@
         <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10877,7 +10874,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10906,10 +10903,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10932,16 +10929,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10991,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11020,13 +11017,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11051,10 +11048,10 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11117,7 +11114,7 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11134,10 +11131,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11246,10 +11243,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11360,10 +11357,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11476,10 +11473,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11505,10 +11502,10 @@
         <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11559,7 +11556,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11588,10 +11585,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11617,13 +11614,13 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11673,7 +11670,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11702,14 +11699,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11728,13 +11725,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11785,7 +11782,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11797,13 +11794,13 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11814,10 +11811,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11843,10 +11840,10 @@
         <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11897,7 +11894,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11906,7 +11903,7 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>99</v>
@@ -11926,10 +11923,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12038,10 +12035,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12152,10 +12149,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12268,10 +12265,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12297,13 +12294,13 @@
         <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12332,11 +12329,11 @@
         <v>127</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12353,7 +12350,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12382,10 +12379,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12408,16 +12405,16 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12467,7 +12464,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12496,10 +12493,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12525,10 +12522,10 @@
         <v>145</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12579,7 +12576,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12588,7 +12585,7 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>99</v>
@@ -12608,10 +12605,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12720,10 +12717,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12834,10 +12831,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12950,10 +12947,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12979,10 +12976,10 @@
         <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13012,11 +13009,11 @@
         <v>127</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13033,7 +13030,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -13062,10 +13059,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13091,13 +13088,13 @@
         <v>101</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13147,7 +13144,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>87</v>
@@ -13176,10 +13173,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13205,10 +13202,10 @@
         <v>150</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13259,7 +13256,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13288,10 +13285,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13317,10 +13314,10 @@
         <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13371,7 +13368,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13400,10 +13397,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13429,10 +13426,10 @@
         <v>150</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13483,7 +13480,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13512,10 +13509,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13541,10 +13538,10 @@
         <v>150</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13595,7 +13592,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13624,10 +13621,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13653,10 +13650,10 @@
         <v>145</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13707,7 +13704,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13716,7 +13713,7 @@
         <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>99</v>
@@ -13736,10 +13733,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13848,10 +13845,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13962,10 +13959,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14078,10 +14075,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14107,10 +14104,10 @@
         <v>150</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14161,7 +14158,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>87</v>
@@ -14190,10 +14187,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14219,10 +14216,10 @@
         <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14273,7 +14270,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14302,10 +14299,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14331,13 +14328,13 @@
         <v>150</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14387,7 +14384,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14416,10 +14413,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14445,13 +14442,13 @@
         <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14501,7 +14498,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14530,10 +14527,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14556,16 +14553,16 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14615,7 +14612,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14644,13 +14641,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14675,10 +14672,10 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14741,7 +14738,7 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>77</v>
@@ -14758,10 +14755,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14870,10 +14867,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14984,10 +14981,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15100,10 +15097,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15129,10 +15126,10 @@
         <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15183,7 +15180,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15212,10 +15209,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15241,13 +15238,13 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15297,7 +15294,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15326,10 +15323,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15352,13 +15349,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15409,7 +15406,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15421,13 +15418,13 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15438,10 +15435,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15467,10 +15464,10 @@
         <v>145</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15521,7 +15518,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15530,7 +15527,7 @@
         <v>87</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>99</v>
@@ -15550,10 +15547,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15662,10 +15659,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15776,10 +15773,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15892,10 +15889,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15921,13 +15918,13 @@
         <v>107</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -15956,11 +15953,11 @@
         <v>127</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>77</v>
       </c>
@@ -15977,7 +15974,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -16006,10 +16003,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16032,16 +16029,16 @@
         <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16091,7 +16088,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16120,10 +16117,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16149,10 +16146,10 @@
         <v>145</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16203,7 +16200,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16212,7 +16209,7 @@
         <v>87</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>99</v>
@@ -16232,10 +16229,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16344,10 +16341,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16458,10 +16455,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16574,10 +16571,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16603,10 +16600,10 @@
         <v>107</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16636,11 +16633,11 @@
         <v>127</v>
       </c>
       <c r="Y130" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z130" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z130" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
       </c>
@@ -16657,7 +16654,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>87</v>
@@ -16686,10 +16683,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16715,13 +16712,13 @@
         <v>101</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -16771,7 +16768,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>87</v>
@@ -16800,10 +16797,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16829,10 +16826,10 @@
         <v>150</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16883,7 +16880,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -16912,10 +16909,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16941,10 +16938,10 @@
         <v>132</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16995,7 +16992,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -17024,10 +17021,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17053,10 +17050,10 @@
         <v>150</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17107,7 +17104,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -17136,10 +17133,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17165,10 +17162,10 @@
         <v>150</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17219,7 +17216,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -17248,10 +17245,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17277,10 +17274,10 @@
         <v>145</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17331,7 +17328,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -17340,7 +17337,7 @@
         <v>87</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>99</v>
@@ -17360,10 +17357,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17472,10 +17469,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17586,10 +17583,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17702,10 +17699,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17731,10 +17728,10 @@
         <v>150</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -17785,7 +17782,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>87</v>
@@ -17814,10 +17811,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17843,10 +17840,10 @@
         <v>101</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -17897,7 +17894,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -17926,10 +17923,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17955,13 +17952,13 @@
         <v>150</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18011,7 +18008,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -18040,10 +18037,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18069,13 +18066,13 @@
         <v>132</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18125,7 +18122,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -18154,10 +18151,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18180,16 +18177,16 @@
         <v>88</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -18239,7 +18236,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -18268,13 +18265,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18299,10 +18296,10 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -18365,7 +18362,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>77</v>
@@ -18382,10 +18379,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18494,10 +18491,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18608,10 +18605,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -18724,10 +18721,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18753,10 +18750,10 @@
         <v>80</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -18807,7 +18804,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -18836,10 +18833,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18865,13 +18862,13 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -18921,7 +18918,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -18950,10 +18947,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18976,13 +18973,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19033,7 +19030,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -19045,13 +19042,13 @@
         <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK151" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL151" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -19062,10 +19059,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19091,10 +19088,10 @@
         <v>145</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -19145,7 +19142,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -19154,7 +19151,7 @@
         <v>87</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>99</v>
@@ -19174,10 +19171,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19286,10 +19283,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19400,10 +19397,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19516,10 +19513,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19545,13 +19542,13 @@
         <v>107</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -19580,11 +19577,11 @@
         <v>127</v>
       </c>
       <c r="Y156" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z156" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z156" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA156" t="s" s="2">
         <v>77</v>
       </c>
@@ -19601,7 +19598,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -19630,10 +19627,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19656,16 +19653,16 @@
         <v>88</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -19715,7 +19712,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -19744,10 +19741,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19773,10 +19770,10 @@
         <v>145</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -19827,7 +19824,7 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -19836,7 +19833,7 @@
         <v>87</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>99</v>
@@ -19856,10 +19853,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19968,10 +19965,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20082,10 +20079,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20198,10 +20195,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20227,10 +20224,10 @@
         <v>107</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -20260,11 +20257,11 @@
         <v>127</v>
       </c>
       <c r="Y162" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z162" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z162" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
       </c>
@@ -20281,7 +20278,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>87</v>
@@ -20310,10 +20307,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20339,13 +20336,13 @@
         <v>101</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -20395,7 +20392,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>87</v>
@@ -20424,10 +20421,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20453,10 +20450,10 @@
         <v>150</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -20507,7 +20504,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -20536,10 +20533,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20565,10 +20562,10 @@
         <v>132</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -20619,7 +20616,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -20648,10 +20645,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20677,10 +20674,10 @@
         <v>150</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -20731,7 +20728,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -20760,10 +20757,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20789,10 +20786,10 @@
         <v>150</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -20843,7 +20840,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -20872,10 +20869,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20901,10 +20898,10 @@
         <v>145</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -20955,7 +20952,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>78</v>
@@ -20964,7 +20961,7 @@
         <v>87</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>99</v>
@@ -20984,10 +20981,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21096,10 +21093,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -21210,10 +21207,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21326,10 +21323,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21355,10 +21352,10 @@
         <v>150</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -21409,7 +21406,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>87</v>
@@ -21438,10 +21435,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -21467,10 +21464,10 @@
         <v>101</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -21521,7 +21518,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -21550,10 +21547,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21579,13 +21576,13 @@
         <v>150</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -21635,7 +21632,7 @@
         <v>77</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -21664,10 +21661,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21693,13 +21690,13 @@
         <v>132</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -21749,7 +21746,7 @@
         <v>77</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>78</v>
@@ -21778,10 +21775,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21804,16 +21801,16 @@
         <v>88</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -21863,7 +21860,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -21892,13 +21889,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21923,10 +21920,10 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21989,7 +21986,7 @@
         <v>77</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>77</v>
@@ -22006,10 +22003,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22118,10 +22115,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22232,10 +22229,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22348,10 +22345,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -22377,10 +22374,10 @@
         <v>80</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -22431,7 +22428,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>78</v>
@@ -22460,10 +22457,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -22489,13 +22486,13 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -22545,7 +22542,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -22574,10 +22571,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -22600,13 +22597,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L183" t="s" s="2">
+      <c r="M183" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22657,7 +22654,7 @@
         <v>77</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>78</v>
@@ -22669,13 +22666,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK183" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AK183" t="s" s="2">
+      <c r="AL183" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22686,10 +22683,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22715,10 +22712,10 @@
         <v>145</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -22769,7 +22766,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -22778,7 +22775,7 @@
         <v>87</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>99</v>
@@ -22798,10 +22795,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22910,10 +22907,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -23024,10 +23021,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23140,10 +23137,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23169,13 +23166,13 @@
         <v>107</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -23204,11 +23201,11 @@
         <v>127</v>
       </c>
       <c r="Y188" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z188" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z188" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA188" t="s" s="2">
         <v>77</v>
       </c>
@@ -23225,7 +23222,7 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>78</v>
@@ -23254,10 +23251,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23280,16 +23277,16 @@
         <v>88</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L189" t="s" s="2">
+      <c r="M189" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -23339,7 +23336,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
@@ -23368,10 +23365,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23397,10 +23394,10 @@
         <v>145</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -23451,7 +23448,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -23460,7 +23457,7 @@
         <v>87</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>99</v>
@@ -23480,10 +23477,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -23592,10 +23589,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23706,10 +23703,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23822,10 +23819,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23851,10 +23848,10 @@
         <v>107</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -23884,11 +23881,11 @@
         <v>127</v>
       </c>
       <c r="Y194" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z194" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z194" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA194" t="s" s="2">
         <v>77</v>
       </c>
@@ -23905,7 +23902,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>87</v>
@@ -23934,10 +23931,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23963,13 +23960,13 @@
         <v>101</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -24019,7 +24016,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>87</v>
@@ -24048,10 +24045,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -24077,10 +24074,10 @@
         <v>150</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -24131,7 +24128,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -24160,10 +24157,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -24189,10 +24186,10 @@
         <v>132</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -24243,7 +24240,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -24272,10 +24269,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -24301,10 +24298,10 @@
         <v>150</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -24355,7 +24352,7 @@
         <v>77</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>78</v>
@@ -24384,10 +24381,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -24413,10 +24410,10 @@
         <v>150</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -24467,7 +24464,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -24496,10 +24493,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24525,10 +24522,10 @@
         <v>145</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -24579,7 +24576,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -24588,7 +24585,7 @@
         <v>87</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>99</v>
@@ -24608,10 +24605,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24720,10 +24717,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24834,10 +24831,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24950,10 +24947,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24979,10 +24976,10 @@
         <v>150</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -25033,7 +25030,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>87</v>
@@ -25062,10 +25059,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -25091,10 +25088,10 @@
         <v>101</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -25145,7 +25142,7 @@
         <v>77</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -25174,10 +25171,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -25203,13 +25200,13 @@
         <v>150</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -25259,7 +25256,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -25288,10 +25285,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -25317,13 +25314,13 @@
         <v>132</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -25373,7 +25370,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -25402,10 +25399,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -25428,16 +25425,16 @@
         <v>88</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -25487,7 +25484,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -25516,13 +25513,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25532,7 +25529,7 @@
         <v>78</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>77</v>
@@ -25547,10 +25544,10 @@
         <v>145</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -25613,7 +25610,7 @@
         <v>77</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>77</v>
@@ -25630,10 +25627,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25742,10 +25739,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25856,10 +25853,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -25972,10 +25969,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -26001,10 +25998,10 @@
         <v>80</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -26055,7 +26052,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -26084,10 +26081,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -26113,13 +26110,13 @@
         <v>101</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M214" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M214" t="s" s="2">
+      <c r="N214" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -26169,7 +26166,7 @@
         <v>77</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>78</v>
@@ -26198,14 +26195,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -26224,13 +26221,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L215" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M215" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26281,7 +26278,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -26293,13 +26290,13 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK215" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AK215" t="s" s="2">
+      <c r="AL215" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL215" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -26310,10 +26307,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -26339,10 +26336,10 @@
         <v>145</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -26393,7 +26390,7 @@
         <v>77</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>78</v>
@@ -26402,7 +26399,7 @@
         <v>87</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>99</v>
@@ -26422,10 +26419,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -26534,10 +26531,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -26648,10 +26645,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -26764,10 +26761,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -26793,13 +26790,13 @@
         <v>107</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -26828,11 +26825,11 @@
         <v>127</v>
       </c>
       <c r="Y220" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z220" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z220" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AA220" t="s" s="2">
         <v>77</v>
       </c>
@@ -26849,7 +26846,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>78</v>
@@ -26878,10 +26875,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26904,16 +26901,16 @@
         <v>88</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -26963,7 +26960,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -26992,10 +26989,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -27021,10 +27018,10 @@
         <v>145</v>
       </c>
       <c r="L222" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -27075,7 +27072,7 @@
         <v>77</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>78</v>
@@ -27084,7 +27081,7 @@
         <v>87</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ222" t="s" s="2">
         <v>99</v>
@@ -27104,10 +27101,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -27216,10 +27213,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -27330,10 +27327,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -27446,10 +27443,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -27475,10 +27472,10 @@
         <v>107</v>
       </c>
       <c r="L226" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -27508,11 +27505,11 @@
         <v>127</v>
       </c>
       <c r="Y226" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z226" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z226" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA226" t="s" s="2">
         <v>77</v>
       </c>
@@ -27529,7 +27526,7 @@
         <v>77</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>87</v>
@@ -27558,10 +27555,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -27587,13 +27584,13 @@
         <v>101</v>
       </c>
       <c r="L227" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -27643,7 +27640,7 @@
         <v>77</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>87</v>
@@ -27672,10 +27669,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -27701,10 +27698,10 @@
         <v>150</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -27755,7 +27752,7 @@
         <v>77</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>78</v>
@@ -27784,10 +27781,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27813,10 +27810,10 @@
         <v>132</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -27867,7 +27864,7 @@
         <v>77</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>78</v>
@@ -27896,10 +27893,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -27925,10 +27922,10 @@
         <v>150</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -27979,7 +27976,7 @@
         <v>77</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>78</v>
@@ -28008,10 +28005,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -28037,10 +28034,10 @@
         <v>150</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -28091,7 +28088,7 @@
         <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -28120,10 +28117,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -28149,10 +28146,10 @@
         <v>145</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -28203,7 +28200,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -28212,7 +28209,7 @@
         <v>87</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>99</v>
@@ -28232,10 +28229,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -28344,10 +28341,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -28458,10 +28455,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -28574,10 +28571,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -28603,10 +28600,10 @@
         <v>150</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -28657,7 +28654,7 @@
         <v>77</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>87</v>
@@ -28686,10 +28683,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -28715,10 +28712,10 @@
         <v>101</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -28769,7 +28766,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -28798,10 +28795,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -28827,13 +28824,13 @@
         <v>150</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M238" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -28883,7 +28880,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -28912,10 +28909,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28941,13 +28938,13 @@
         <v>132</v>
       </c>
       <c r="L239" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M239" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M239" t="s" s="2">
+      <c r="N239" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -28997,7 +28994,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>78</v>
@@ -29026,10 +29023,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -29052,16 +29049,16 @@
         <v>88</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M240" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
@@ -29111,7 +29108,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -29140,10 +29137,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -29166,19 +29163,19 @@
         <v>88</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -29227,7 +29224,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>practitionerRole</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso PractitionerRole</t>
@@ -18281,7 +18284,7 @@
         <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18296,7 +18299,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18379,7 +18382,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18491,7 +18494,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18605,7 +18608,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18721,7 +18724,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18833,7 +18836,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18947,7 +18950,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18973,13 +18976,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19059,7 +19062,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19171,7 +19174,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19283,7 +19286,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19397,7 +19400,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19513,7 +19516,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19627,7 +19630,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19741,7 +19744,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19853,7 +19856,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19965,7 +19968,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -20079,7 +20082,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20195,7 +20198,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20307,7 +20310,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20421,7 +20424,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20533,7 +20536,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20645,7 +20648,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20757,7 +20760,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20869,7 +20872,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20981,7 +20984,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -21093,7 +21096,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21207,7 +21210,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21323,7 +21326,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21435,7 +21438,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21547,7 +21550,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21661,7 +21664,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21775,7 +21778,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21889,13 +21892,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21905,7 +21908,7 @@
         <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21920,7 +21923,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -22003,7 +22006,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22115,7 +22118,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22229,7 +22232,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22345,7 +22348,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22457,7 +22460,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22571,7 +22574,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22597,13 +22600,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22666,13 +22669,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22683,7 +22686,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22795,7 +22798,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22907,7 +22910,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -23021,7 +23024,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23137,7 +23140,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23251,7 +23254,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23365,7 +23368,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23477,7 +23480,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23589,7 +23592,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23703,7 +23706,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23819,7 +23822,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23931,7 +23934,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -24045,7 +24048,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24157,7 +24160,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24269,7 +24272,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24381,7 +24384,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24493,7 +24496,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24605,7 +24608,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24717,7 +24720,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24831,7 +24834,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24947,7 +24950,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -25059,7 +25062,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25171,7 +25174,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25285,7 +25288,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25399,7 +25402,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25513,13 +25516,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25627,7 +25630,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>182</v>
@@ -25739,7 +25742,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>183</v>
@@ -25853,7 +25856,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>184</v>
@@ -25969,7 +25972,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>185</v>
@@ -26081,7 +26084,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>188</v>
@@ -26195,7 +26198,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>192</v>
@@ -26221,10 +26224,10 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>318</v>
@@ -26307,7 +26310,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>196</v>
@@ -26419,7 +26422,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>200</v>
@@ -26531,7 +26534,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>201</v>
@@ -26645,7 +26648,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>202</v>
@@ -26761,7 +26764,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>203</v>
@@ -26875,7 +26878,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>209</v>
@@ -26989,7 +26992,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>214</v>
@@ -27101,7 +27104,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>218</v>
@@ -27213,7 +27216,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>219</v>
@@ -27327,7 +27330,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>220</v>
@@ -27443,7 +27446,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>221</v>
@@ -27555,7 +27558,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>226</v>
@@ -27669,7 +27672,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>230</v>
@@ -27781,7 +27784,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>233</v>
@@ -27893,7 +27896,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>235</v>
@@ -28005,7 +28008,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>238</v>
@@ -28117,7 +28120,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>241</v>
@@ -28229,7 +28232,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>245</v>
@@ -28341,7 +28344,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>246</v>
@@ -28455,7 +28458,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>247</v>
@@ -28571,7 +28574,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>248</v>
@@ -28683,7 +28686,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>251</v>
@@ -28795,7 +28798,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>254</v>
@@ -28909,7 +28912,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>258</v>
@@ -29023,7 +29026,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>262</v>
@@ -29137,10 +29140,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -29163,19 +29166,19 @@
         <v>88</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -29224,7 +29227,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8089,13 +8089,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -11713,13 +11713,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -15337,13 +15337,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
@@ -22585,13 +22585,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>
@@ -26209,13 +26209,13 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
